--- a/export.xlsx
+++ b/export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andtu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andtu\Desktop\juki\venv\app_is_here\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Фамилия, Имя</t>
   </si>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -315,6 +315,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,10 +626,10 @@
   <dimension ref="A1:AMH58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FD39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="II2" sqref="II1:II1048576"/>
+      <selection pane="bottomRight" activeCell="GM48" sqref="GM48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,294 +651,294 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="17" t="s">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="16"/>
-      <c r="CA1" s="16"/>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="16"/>
-      <c r="CD1" s="16"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="16"/>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
-      <c r="CJ1" s="16"/>
-      <c r="CK1" s="16"/>
-      <c r="CL1" s="16"/>
-      <c r="CM1" s="17" t="s">
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CN1" s="16"/>
-      <c r="CO1" s="16"/>
-      <c r="CP1" s="16"/>
-      <c r="CQ1" s="16"/>
-      <c r="CR1" s="16"/>
-      <c r="CS1" s="16"/>
-      <c r="CT1" s="16"/>
-      <c r="CU1" s="16"/>
-      <c r="CV1" s="16"/>
-      <c r="CW1" s="16"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="16"/>
-      <c r="DA1" s="16"/>
-      <c r="DB1" s="16"/>
-      <c r="DC1" s="16"/>
-      <c r="DD1" s="16"/>
-      <c r="DE1" s="16"/>
-      <c r="DF1" s="16"/>
-      <c r="DG1" s="16"/>
-      <c r="DH1" s="16"/>
-      <c r="DI1" s="16"/>
-      <c r="DJ1" s="16"/>
-      <c r="DK1" s="16"/>
-      <c r="DL1" s="16"/>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="16"/>
-      <c r="DO1" s="16"/>
-      <c r="DP1" s="16"/>
-      <c r="DQ1" s="16"/>
-      <c r="DR1" s="15" t="s">
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="DS1" s="16"/>
-      <c r="DT1" s="16"/>
-      <c r="DU1" s="16"/>
-      <c r="DV1" s="16"/>
-      <c r="DW1" s="16"/>
-      <c r="DX1" s="16"/>
-      <c r="DY1" s="16"/>
-      <c r="DZ1" s="16"/>
-      <c r="EA1" s="16"/>
-      <c r="EB1" s="16"/>
-      <c r="EC1" s="16"/>
-      <c r="ED1" s="16"/>
-      <c r="EE1" s="16"/>
-      <c r="EF1" s="16"/>
-      <c r="EG1" s="16"/>
-      <c r="EH1" s="16"/>
-      <c r="EI1" s="16"/>
-      <c r="EJ1" s="16"/>
-      <c r="EK1" s="16"/>
-      <c r="EL1" s="16"/>
-      <c r="EM1" s="16"/>
-      <c r="EN1" s="16"/>
-      <c r="EO1" s="16"/>
-      <c r="EP1" s="16"/>
-      <c r="EQ1" s="16"/>
-      <c r="ER1" s="16"/>
-      <c r="ES1" s="16"/>
-      <c r="ET1" s="16"/>
-      <c r="EU1" s="16"/>
-      <c r="EV1" s="16"/>
-      <c r="EW1" s="15" t="s">
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="EX1" s="16"/>
-      <c r="EY1" s="16"/>
-      <c r="EZ1" s="16"/>
-      <c r="FA1" s="16"/>
-      <c r="FB1" s="16"/>
-      <c r="FC1" s="16"/>
-      <c r="FD1" s="16"/>
-      <c r="FE1" s="16"/>
-      <c r="FF1" s="16"/>
-      <c r="FG1" s="16"/>
-      <c r="FH1" s="16"/>
-      <c r="FI1" s="16"/>
-      <c r="FJ1" s="16"/>
-      <c r="FK1" s="16"/>
-      <c r="FL1" s="16"/>
-      <c r="FM1" s="16"/>
-      <c r="FN1" s="16"/>
-      <c r="FO1" s="16"/>
-      <c r="FP1" s="16"/>
-      <c r="FQ1" s="16"/>
-      <c r="FR1" s="16"/>
-      <c r="FS1" s="16"/>
-      <c r="FT1" s="16"/>
-      <c r="FU1" s="16"/>
-      <c r="FV1" s="16"/>
-      <c r="FW1" s="16"/>
-      <c r="FX1" s="16"/>
-      <c r="FY1" s="16"/>
-      <c r="FZ1" s="15" t="s">
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="GA1" s="16"/>
-      <c r="GB1" s="16"/>
-      <c r="GC1" s="16"/>
-      <c r="GD1" s="16"/>
-      <c r="GE1" s="16"/>
-      <c r="GF1" s="16"/>
-      <c r="GG1" s="16"/>
-      <c r="GH1" s="16"/>
-      <c r="GI1" s="16"/>
-      <c r="GJ1" s="16"/>
-      <c r="GK1" s="16"/>
-      <c r="GL1" s="16"/>
-      <c r="GM1" s="16"/>
-      <c r="GN1" s="16"/>
-      <c r="GO1" s="16"/>
-      <c r="GP1" s="16"/>
-      <c r="GQ1" s="16"/>
-      <c r="GR1" s="16"/>
-      <c r="GS1" s="16"/>
-      <c r="GT1" s="16"/>
-      <c r="GU1" s="16"/>
-      <c r="GV1" s="16"/>
-      <c r="GW1" s="16"/>
-      <c r="GX1" s="16"/>
-      <c r="GY1" s="16"/>
-      <c r="GZ1" s="16"/>
-      <c r="HA1" s="16"/>
-      <c r="HB1" s="16"/>
-      <c r="HC1" s="16"/>
-      <c r="HD1" s="16"/>
-      <c r="HE1" s="15" t="s">
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="HF1" s="16"/>
-      <c r="HG1" s="16"/>
-      <c r="HH1" s="16"/>
-      <c r="HI1" s="16"/>
-      <c r="HJ1" s="16"/>
-      <c r="HK1" s="16"/>
-      <c r="HL1" s="16"/>
-      <c r="HM1" s="16"/>
-      <c r="HN1" s="16"/>
-      <c r="HO1" s="16"/>
-      <c r="HP1" s="16"/>
-      <c r="HQ1" s="16"/>
-      <c r="HR1" s="16"/>
-      <c r="HS1" s="16"/>
-      <c r="HT1" s="16"/>
-      <c r="HU1" s="16"/>
-      <c r="HV1" s="16"/>
-      <c r="HW1" s="16"/>
-      <c r="HX1" s="16"/>
-      <c r="HY1" s="16"/>
-      <c r="HZ1" s="16"/>
-      <c r="IA1" s="16"/>
-      <c r="IB1" s="16"/>
-      <c r="IC1" s="16"/>
-      <c r="ID1" s="16"/>
-      <c r="IE1" s="16"/>
-      <c r="IF1" s="16"/>
-      <c r="IG1" s="16"/>
-      <c r="IH1" s="16"/>
-      <c r="II1" s="15" t="s">
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="IJ1" s="16"/>
-      <c r="IK1" s="16"/>
-      <c r="IL1" s="16"/>
-      <c r="IM1" s="16"/>
-      <c r="IN1" s="16"/>
-      <c r="IO1" s="16"/>
-      <c r="IP1" s="16"/>
-      <c r="IQ1" s="16"/>
-      <c r="IR1" s="16"/>
-      <c r="IS1" s="16"/>
-      <c r="IT1" s="16"/>
-      <c r="IU1" s="16"/>
-      <c r="IV1" s="16"/>
-      <c r="IW1" s="16"/>
-      <c r="IX1" s="16"/>
-      <c r="IY1" s="16"/>
-      <c r="IZ1" s="16"/>
-      <c r="JA1" s="16"/>
-      <c r="JB1" s="16"/>
-      <c r="JC1" s="16"/>
-      <c r="JD1" s="16"/>
-      <c r="JE1" s="16"/>
-      <c r="JF1" s="16"/>
-      <c r="JG1" s="16"/>
-      <c r="JH1" s="16"/>
-      <c r="JI1" s="16"/>
-      <c r="JJ1" s="16"/>
-      <c r="JK1" s="16"/>
-      <c r="JL1" s="16"/>
-      <c r="JM1" s="16"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
     </row>
     <row r="2" spans="1:273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2">
@@ -1758,7 +1759,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="13">
         <f t="shared" ref="C3:C34" si="0">COUNTA(D3:JM3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1803,6 +1804,9 @@
       <c r="EM3" s="3"/>
       <c r="ET3" s="3"/>
       <c r="FA3" s="3"/>
+      <c r="GH3" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1813,7 +1817,7 @@
       </c>
       <c r="C4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1858,6 +1862,9 @@
       <c r="EM4" s="3"/>
       <c r="ET4" s="3"/>
       <c r="FA4" s="3"/>
+      <c r="GH4" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1868,7 +1875,7 @@
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1913,6 +1920,9 @@
       <c r="EM5" s="3"/>
       <c r="ET5" s="3"/>
       <c r="FA5" s="3"/>
+      <c r="GH5" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1923,7 +1933,7 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1968,6 +1978,9 @@
       <c r="EM6" s="3"/>
       <c r="ET6" s="3"/>
       <c r="FA6" s="3"/>
+      <c r="GH6" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1978,7 +1991,7 @@
       </c>
       <c r="C7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3"/>
       <c r="Q7" s="3"/>
@@ -2023,6 +2036,9 @@
       <c r="EM7" s="3"/>
       <c r="ET7" s="3"/>
       <c r="FA7" s="3"/>
+      <c r="GH7" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2033,7 +2049,7 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3"/>
       <c r="Q8" s="3"/>
@@ -2078,6 +2094,9 @@
       <c r="EM8" s="3"/>
       <c r="ET8" s="3"/>
       <c r="FA8" s="3"/>
+      <c r="GH8" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2088,7 +2107,7 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2133,6 +2152,9 @@
       <c r="EM9" s="3"/>
       <c r="ET9" s="3"/>
       <c r="FA9" s="3"/>
+      <c r="GH9" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2143,7 +2165,7 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2191,6 +2213,9 @@
       </c>
       <c r="ET10" s="3"/>
       <c r="FA10" s="3"/>
+      <c r="GH10" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2201,7 +2226,7 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3"/>
       <c r="Q11" s="3"/>
@@ -2246,6 +2271,9 @@
       <c r="EM11" s="3"/>
       <c r="ET11" s="3"/>
       <c r="FA11" s="3"/>
+      <c r="GH11" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:273" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2256,7 +2284,7 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3"/>
       <c r="M12" s="7"/>
@@ -2302,6 +2330,9 @@
       <c r="EM12" s="3"/>
       <c r="ET12" s="3"/>
       <c r="FA12" s="3"/>
+      <c r="GH12" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2312,7 +2343,7 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2357,6 +2388,9 @@
       <c r="EM13" s="3"/>
       <c r="ET13" s="3"/>
       <c r="FA13" s="3"/>
+      <c r="GH13" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2367,7 +2401,7 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2412,6 +2446,9 @@
       <c r="EM14" s="3"/>
       <c r="ET14" s="3"/>
       <c r="FA14" s="3"/>
+      <c r="GH14" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2422,7 +2459,7 @@
       </c>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3"/>
       <c r="Q15" s="3"/>
@@ -2467,6 +2504,9 @@
       <c r="EM15" s="3"/>
       <c r="ET15" s="3"/>
       <c r="FA15" s="3"/>
+      <c r="GH15" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2477,7 +2517,7 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2522,6 +2562,9 @@
       <c r="EM16" s="3"/>
       <c r="ET16" s="3"/>
       <c r="FA16" s="3"/>
+      <c r="GH16" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2532,7 +2575,7 @@
       </c>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2577,6 +2620,9 @@
       <c r="EM17" s="3"/>
       <c r="ET17" s="3"/>
       <c r="FA17" s="3"/>
+      <c r="GH17" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:273" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2587,7 +2633,7 @@
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2635,6 +2681,9 @@
       <c r="EM18" s="3"/>
       <c r="ET18" s="3"/>
       <c r="FA18" s="3"/>
+      <c r="GH18" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2645,7 +2694,7 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2690,6 +2739,9 @@
       <c r="EM19" s="3"/>
       <c r="ET19" s="3"/>
       <c r="FA19" s="3"/>
+      <c r="GH19" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2700,7 +2752,7 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2745,6 +2797,9 @@
       <c r="EM20" s="3"/>
       <c r="ET20" s="3"/>
       <c r="FA20" s="3"/>
+      <c r="GH20" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2755,7 +2810,7 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2800,6 +2855,9 @@
       <c r="EM21" s="3"/>
       <c r="ET21" s="3"/>
       <c r="FA21" s="3"/>
+      <c r="GH21" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2810,7 +2868,7 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2855,6 +2913,9 @@
       <c r="EM22" s="3"/>
       <c r="ET22" s="3"/>
       <c r="FA22" s="3"/>
+      <c r="GH22" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -2865,7 +2926,7 @@
       </c>
       <c r="C23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2910,6 +2971,9 @@
       <c r="EM23" s="3"/>
       <c r="ET23" s="3"/>
       <c r="FA23" s="3"/>
+      <c r="GH23" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -2920,7 +2984,7 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2965,6 +3029,9 @@
       <c r="EM24" s="3"/>
       <c r="ET24" s="3"/>
       <c r="FA24" s="3"/>
+      <c r="GH24" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -2975,7 +3042,7 @@
       </c>
       <c r="C25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3"/>
       <c r="Q25" s="3"/>
@@ -3020,6 +3087,9 @@
       <c r="EM25" s="3"/>
       <c r="ET25" s="3"/>
       <c r="FA25" s="3"/>
+      <c r="GH25" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3030,7 +3100,7 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3075,6 +3145,9 @@
       <c r="EM26" s="3"/>
       <c r="ET26" s="3"/>
       <c r="FA26" s="3"/>
+      <c r="GH26" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -3085,7 +3158,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3273,7 +3346,9 @@
       <c r="GE27" s="10"/>
       <c r="GF27" s="10"/>
       <c r="GG27" s="10"/>
-      <c r="GH27" s="10"/>
+      <c r="GH27" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="GI27" s="10"/>
       <c r="GJ27" s="10"/>
       <c r="GK27" s="10"/>
@@ -3367,7 +3442,7 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3555,7 +3630,9 @@
       <c r="GE28" s="10"/>
       <c r="GF28" s="10"/>
       <c r="GG28" s="10"/>
-      <c r="GH28" s="10"/>
+      <c r="GH28" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="GI28" s="10"/>
       <c r="GJ28" s="10"/>
       <c r="GK28" s="10"/>
@@ -3649,7 +3726,7 @@
       </c>
       <c r="C29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3"/>
       <c r="Q29" s="3"/>
@@ -3694,6 +3771,9 @@
       <c r="EM29" s="3"/>
       <c r="ET29" s="3"/>
       <c r="FA29" s="3"/>
+      <c r="GH29" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:273" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -3704,7 +3784,7 @@
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3"/>
       <c r="L30" s="7"/>
@@ -3750,6 +3830,9 @@
       <c r="EM30" s="3"/>
       <c r="ET30" s="3"/>
       <c r="FA30" s="3"/>
+      <c r="GH30" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3760,7 +3843,7 @@
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3805,6 +3888,9 @@
       <c r="EM31" s="3"/>
       <c r="ET31" s="3"/>
       <c r="FA31" s="3"/>
+      <c r="GH31" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3815,7 +3901,7 @@
       </c>
       <c r="C32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3860,8 +3946,11 @@
       <c r="EM32" s="3"/>
       <c r="ET32" s="3"/>
       <c r="FA32" s="3"/>
+      <c r="GH32" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
@@ -3870,7 +3959,7 @@
       </c>
       <c r="C33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3915,8 +4004,11 @@
       <c r="EM33" s="3"/>
       <c r="ET33" s="3"/>
       <c r="FA33" s="3"/>
+      <c r="GH33" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="34" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -3925,7 +4017,7 @@
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3970,8 +4062,11 @@
       <c r="EM34" s="3"/>
       <c r="ET34" s="3"/>
       <c r="FA34" s="3"/>
+      <c r="GH34" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -3979,8 +4074,8 @@
         <v>42379</v>
       </c>
       <c r="C35" s="13">
-        <f t="shared" ref="C35:C66" si="1">COUNTA(D35:JM35)</f>
-        <v>0</v>
+        <f t="shared" ref="C35:C53" si="1">COUNTA(D35:JM35)</f>
+        <v>1</v>
       </c>
       <c r="J35" s="3"/>
       <c r="Q35" s="3"/>
@@ -4025,8 +4120,11 @@
       <c r="EM35" s="3"/>
       <c r="ET35" s="3"/>
       <c r="FA35" s="3"/>
+      <c r="GH35" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="36" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -4035,7 +4133,7 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="3"/>
       <c r="Q36" s="3"/>
@@ -4080,8 +4178,11 @@
       <c r="EM36" s="3"/>
       <c r="ET36" s="3"/>
       <c r="FA36" s="3"/>
+      <c r="GH36" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
@@ -4090,7 +4191,7 @@
       </c>
       <c r="C37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3"/>
       <c r="Q37" s="3"/>
@@ -4135,8 +4236,11 @@
       <c r="EM37" s="3"/>
       <c r="ET37" s="3"/>
       <c r="FA37" s="3"/>
+      <c r="GH37" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="38" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
@@ -4145,7 +4249,7 @@
       </c>
       <c r="C38" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3"/>
       <c r="Q38" s="3"/>
@@ -4190,8 +4294,11 @@
       <c r="EM38" s="3"/>
       <c r="ET38" s="3"/>
       <c r="FA38" s="3"/>
+      <c r="GH38" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="39" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -4200,7 +4307,7 @@
       </c>
       <c r="C39" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="3"/>
       <c r="Q39" s="3"/>
@@ -4245,8 +4352,11 @@
       <c r="EM39" s="3"/>
       <c r="ET39" s="3"/>
       <c r="FA39" s="3"/>
+      <c r="GH39" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="40" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -4255,7 +4365,7 @@
       </c>
       <c r="C40" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3"/>
       <c r="Q40" s="3"/>
@@ -4300,8 +4410,11 @@
       <c r="EM40" s="3"/>
       <c r="ET40" s="3"/>
       <c r="FA40" s="3"/>
+      <c r="GH40" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="41" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
@@ -4310,7 +4423,7 @@
       </c>
       <c r="C41" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="3"/>
       <c r="Q41" s="3"/>
@@ -4355,8 +4468,11 @@
       <c r="EM41" s="3"/>
       <c r="ET41" s="3"/>
       <c r="FA41" s="3"/>
+      <c r="GH41" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="42" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
@@ -4365,7 +4481,7 @@
       </c>
       <c r="C42" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3"/>
       <c r="Q42" s="3"/>
@@ -4410,8 +4526,11 @@
       <c r="EM42" s="3"/>
       <c r="ET42" s="3"/>
       <c r="FA42" s="3"/>
+      <c r="GH42" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="43" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
@@ -4420,7 +4539,7 @@
       </c>
       <c r="C43" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3"/>
       <c r="Q43" s="3"/>
@@ -4465,8 +4584,11 @@
       <c r="EM43" s="3"/>
       <c r="ET43" s="3"/>
       <c r="FA43" s="3"/>
+      <c r="GH43" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="44" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
@@ -4475,7 +4597,7 @@
       </c>
       <c r="C44" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3"/>
       <c r="Q44" s="3"/>
@@ -4520,8 +4642,11 @@
       <c r="EM44" s="3"/>
       <c r="ET44" s="3"/>
       <c r="FA44" s="3"/>
+      <c r="GH44" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="45" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
@@ -4530,7 +4655,7 @@
       </c>
       <c r="C45" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3"/>
       <c r="Q45" s="3"/>
@@ -4575,8 +4700,11 @@
       <c r="EM45" s="3"/>
       <c r="ET45" s="3"/>
       <c r="FA45" s="3"/>
+      <c r="GH45" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="46" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -4585,7 +4713,7 @@
       </c>
       <c r="C46" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3"/>
       <c r="Q46" s="3"/>
@@ -4630,8 +4758,11 @@
       <c r="EM46" s="3"/>
       <c r="ET46" s="3"/>
       <c r="FA46" s="3"/>
+      <c r="GH46" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="47" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
@@ -4640,7 +4771,7 @@
       </c>
       <c r="C47" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3"/>
       <c r="Q47" s="3"/>
@@ -4685,8 +4816,11 @@
       <c r="EM47" s="3"/>
       <c r="ET47" s="3"/>
       <c r="FA47" s="3"/>
+      <c r="GH47" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="48" spans="1:157" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:190" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>58</v>
       </c>
@@ -4695,7 +4829,7 @@
       </c>
       <c r="C48" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="3"/>
       <c r="Q48" s="3"/>
@@ -4740,6 +4874,9 @@
       <c r="EM48" s="3"/>
       <c r="ET48" s="3"/>
       <c r="FA48" s="3"/>
+      <c r="GH48" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -4750,7 +4887,7 @@
       </c>
       <c r="C49" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="3"/>
       <c r="Q49" s="3"/>
@@ -4795,6 +4932,9 @@
       <c r="EM49" s="3"/>
       <c r="ET49" s="3"/>
       <c r="FA49" s="3"/>
+      <c r="GH49" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -4805,7 +4945,7 @@
       </c>
       <c r="C50" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4850,6 +4990,9 @@
       <c r="EM50" s="3"/>
       <c r="ET50" s="3"/>
       <c r="FA50" s="3"/>
+      <c r="GH50" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:273" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -4860,7 +5003,7 @@
       </c>
       <c r="C51" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -5048,7 +5191,9 @@
       <c r="GE51" s="10"/>
       <c r="GF51" s="10"/>
       <c r="GG51" s="10"/>
-      <c r="GH51" s="10"/>
+      <c r="GH51" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="GI51" s="10"/>
       <c r="GJ51" s="10"/>
       <c r="GK51" s="10"/>
@@ -5142,7 +5287,7 @@
       </c>
       <c r="C52" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -5330,7 +5475,9 @@
       <c r="GE52" s="10"/>
       <c r="GF52" s="10"/>
       <c r="GG52" s="10"/>
-      <c r="GH52" s="10"/>
+      <c r="GH52" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="GI52" s="10"/>
       <c r="GJ52" s="10"/>
       <c r="GK52" s="10"/>
@@ -5424,7 +5571,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3"/>
       <c r="Q53" s="3"/>
@@ -5471,6 +5618,9 @@
       <c r="EM53" s="3"/>
       <c r="ET53" s="3"/>
       <c r="FA53" s="3"/>
+      <c r="GH53" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="3"/>

--- a/export.xlsx
+++ b/export.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17870"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andtu\Desktop\juki\venv\app_is_here\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="10 класс" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10 класс" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,258 +25,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
-  <si>
-    <t xml:space="preserve">Фамилия, Имя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Класс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">всего</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сентябрь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">октябрь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ноябрь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">декабрь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">январь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">февраль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">март</t>
-  </si>
-  <si>
-    <t xml:space="preserve">апрель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">май</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пример</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алеев Мурат Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеев Илья Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архипова Анастасия Станиславовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Балакшина Мария Евгеньевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Барциц Никита Теймуразович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бешкуров Михаил Борисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бешкуров Тимофей Борисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блынская София Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богдан Дарья Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Браздникова Ульяна Викторовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Букин Андрей Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Волков Георгий Васильевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорян Виктория Рубеновна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Губанова Полина Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данилов Руслан Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Деева Александра Андреевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимова Наталья Николаевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жуковская Кира Леонидовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иевлева Валерия Андреевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капкова Мария Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каргинова Анна Евгеньевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кин Александр Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Козлова Мария Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косарева Олеся Алексеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кубрак Катерина Вадимовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Левин Ефим Михайлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ли Тимофей Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мазурова Варвара Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печникова Галина Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пужаев Илия Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разин Денис Валерьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ракитина Наталия Андреевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рудый Всеволод Вадимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Святловская София Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смолярова Юлия Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сокова Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Солопова Елена Валерьевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сонькин Михаил Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спасенкова Арина Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стрелкова Марья Михайловна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Титкова Александра Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тиунова Ольга Никитична</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тюняткин Андрей Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уманский Вениамин Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Халитова Эльмира Тимуровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хаханова Маргарита Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернышев Артём Кириллович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шашкин Иван Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шерстнева Мария Ивановна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элиович Алиса Александровна</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+  <si>
+    <t>Фамилия, Имя</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>сентябрь</t>
+  </si>
+  <si>
+    <t>октябрь</t>
+  </si>
+  <si>
+    <t>ноябрь</t>
+  </si>
+  <si>
+    <t>декабрь</t>
+  </si>
+  <si>
+    <t>январь</t>
+  </si>
+  <si>
+    <t>февраль</t>
+  </si>
+  <si>
+    <t>март</t>
+  </si>
+  <si>
+    <t>апрель</t>
+  </si>
+  <si>
+    <t>май</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Алеев Мурат Дмитриевич</t>
+  </si>
+  <si>
+    <t>Алексеев Илья Сергеевич</t>
+  </si>
+  <si>
+    <t>Архипова Анастасия Станиславовна</t>
+  </si>
+  <si>
+    <t>Балакшина Мария Евгеньевна</t>
+  </si>
+  <si>
+    <t>Барциц Никита Теймуразович</t>
+  </si>
+  <si>
+    <t>Бешкуров Михаил Борисович</t>
+  </si>
+  <si>
+    <t>Бешкуров Тимофей Борисович</t>
+  </si>
+  <si>
+    <t>Блынская София Владимировна</t>
+  </si>
+  <si>
+    <t>Богдан Дарья Александровна</t>
+  </si>
+  <si>
+    <t>Браздникова Ульяна Викторовна</t>
+  </si>
+  <si>
+    <t>Букин Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Волков Георгий Васильевич</t>
+  </si>
+  <si>
+    <t>Григорян Виктория Рубеновна</t>
+  </si>
+  <si>
+    <t>Губанова Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Данилов Руслан Игоревич</t>
+  </si>
+  <si>
+    <t>Деева Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Евдокимова Наталья Николаевна</t>
+  </si>
+  <si>
+    <t>Жуковская Кира Леонидовна</t>
+  </si>
+  <si>
+    <t>Иевлева Валерия Андреевна</t>
+  </si>
+  <si>
+    <t>Капкова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Каргинова Анна Евгеньевна</t>
+  </si>
+  <si>
+    <t>Кин Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>Козлова Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Косарева Олеся Алексеевна</t>
+  </si>
+  <si>
+    <t>Кубрак Катерина Вадимовна</t>
+  </si>
+  <si>
+    <t>Левин Ефим Михайлович</t>
+  </si>
+  <si>
+    <t>Ли Тимофей Александрович</t>
+  </si>
+  <si>
+    <t>Мазурова Варвара Владимировна</t>
+  </si>
+  <si>
+    <t>Печникова Галина Сергеевна</t>
+  </si>
+  <si>
+    <t>Пужаев Илия Юрьевич</t>
+  </si>
+  <si>
+    <t>Разин Денис Валерьевич</t>
+  </si>
+  <si>
+    <t>Ракитина Наталия Андреевна</t>
+  </si>
+  <si>
+    <t>Рудый Всеволод Вадимович</t>
+  </si>
+  <si>
+    <t>Святловская София Владимировна</t>
+  </si>
+  <si>
+    <t>Смолярова Юлия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Сокова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>Солопова Елена Валерьевна</t>
+  </si>
+  <si>
+    <t>Сонькин Михаил Викторович</t>
+  </si>
+  <si>
+    <t>Спасенкова Арина Владимировна</t>
+  </si>
+  <si>
+    <t>Стрелкова Марья Михайловна</t>
+  </si>
+  <si>
+    <t>Титкова Александра Сергеевна</t>
+  </si>
+  <si>
+    <t>Тиунова Ольга Никитична</t>
+  </si>
+  <si>
+    <t>Тюняткин Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Уманский Вениамин Алексеевич</t>
+  </si>
+  <si>
+    <t>Халитова Эльмира Тимуровна</t>
+  </si>
+  <si>
+    <t>Хаханова Маргарита Сергеевна</t>
+  </si>
+  <si>
+    <t>Чернышев Артём Кириллович</t>
+  </si>
+  <si>
+    <t>Шашкин Иван Александрович</t>
+  </si>
+  <si>
+    <t>Шерстнева Мария Ивановна</t>
+  </si>
+  <si>
+    <t>Элиович Алиса Александровна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-M"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFF4CCCC"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -308,7 +289,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -316,109 +297,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -477,1170 +390,1477 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JQ58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BE1" activeCellId="0" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="FY3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="GL3" sqref="GL3:GL21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="277" min="4" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="278" style="0" width="13.6326530612245"/>
+    <col min="1" max="1" width="25.140625" style="4"/>
+    <col min="2" max="2" width="6.28515625" style="5"/>
+    <col min="3" max="3" width="4.5703125" style="4"/>
+    <col min="4" max="277" width="3.5703125" style="4"/>
+    <col min="278" max="1025" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="6" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6" t="s">
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6"/>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6" t="s">
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6"/>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6"/>
-      <c r="DI1" s="6"/>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="6"/>
-      <c r="DM1" s="6"/>
-      <c r="DN1" s="6"/>
-      <c r="DO1" s="6"/>
-      <c r="DP1" s="6"/>
-      <c r="DQ1" s="6"/>
-      <c r="DR1" s="6"/>
-      <c r="DS1" s="6"/>
-      <c r="DT1" s="6"/>
-      <c r="DU1" s="6"/>
-      <c r="DV1" s="7" t="s">
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="DW1" s="7"/>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="7"/>
-      <c r="DZ1" s="7"/>
-      <c r="EA1" s="7"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="7"/>
-      <c r="ED1" s="7"/>
-      <c r="EE1" s="7"/>
-      <c r="EF1" s="7"/>
-      <c r="EG1" s="7"/>
-      <c r="EH1" s="7"/>
-      <c r="EI1" s="7"/>
-      <c r="EJ1" s="7"/>
-      <c r="EK1" s="7"/>
-      <c r="EL1" s="7"/>
-      <c r="EM1" s="7"/>
-      <c r="EN1" s="7"/>
-      <c r="EO1" s="7"/>
-      <c r="EP1" s="7"/>
-      <c r="EQ1" s="7"/>
-      <c r="ER1" s="7"/>
-      <c r="ES1" s="7"/>
-      <c r="ET1" s="7"/>
-      <c r="EU1" s="7"/>
-      <c r="EV1" s="7"/>
-      <c r="EW1" s="7"/>
-      <c r="EX1" s="7"/>
-      <c r="EY1" s="7"/>
-      <c r="EZ1" s="7"/>
-      <c r="FA1" s="7" t="s">
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="FB1" s="7"/>
-      <c r="FC1" s="7"/>
-      <c r="FD1" s="7"/>
-      <c r="FE1" s="7"/>
-      <c r="FF1" s="7"/>
-      <c r="FG1" s="7"/>
-      <c r="FH1" s="7"/>
-      <c r="FI1" s="7"/>
-      <c r="FJ1" s="7"/>
-      <c r="FK1" s="7"/>
-      <c r="FL1" s="7"/>
-      <c r="FM1" s="7"/>
-      <c r="FN1" s="7"/>
-      <c r="FO1" s="7"/>
-      <c r="FP1" s="7"/>
-      <c r="FQ1" s="7"/>
-      <c r="FR1" s="7"/>
-      <c r="FS1" s="7"/>
-      <c r="FT1" s="7"/>
-      <c r="FU1" s="7"/>
-      <c r="FV1" s="7"/>
-      <c r="FW1" s="7"/>
-      <c r="FX1" s="7"/>
-      <c r="FY1" s="7"/>
-      <c r="FZ1" s="7"/>
-      <c r="GA1" s="7"/>
-      <c r="GB1" s="7"/>
-      <c r="GC1" s="7"/>
-      <c r="GD1" s="7" t="s">
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="GE1" s="7"/>
-      <c r="GF1" s="7"/>
-      <c r="GG1" s="7"/>
-      <c r="GH1" s="7"/>
-      <c r="GI1" s="7"/>
-      <c r="GJ1" s="7"/>
-      <c r="GK1" s="7"/>
-      <c r="GL1" s="7"/>
-      <c r="GM1" s="7"/>
-      <c r="GN1" s="7"/>
-      <c r="GO1" s="7"/>
-      <c r="GP1" s="7"/>
-      <c r="GQ1" s="7"/>
-      <c r="GR1" s="7"/>
-      <c r="GS1" s="7"/>
-      <c r="GT1" s="7"/>
-      <c r="GU1" s="7"/>
-      <c r="GV1" s="7"/>
-      <c r="GW1" s="7"/>
-      <c r="GX1" s="7"/>
-      <c r="GY1" s="7"/>
-      <c r="GZ1" s="7"/>
-      <c r="HA1" s="7"/>
-      <c r="HB1" s="7"/>
-      <c r="HC1" s="7"/>
-      <c r="HD1" s="7"/>
-      <c r="HE1" s="7"/>
-      <c r="HF1" s="7"/>
-      <c r="HG1" s="7"/>
-      <c r="HH1" s="7"/>
-      <c r="HI1" s="7" t="s">
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="HJ1" s="7"/>
-      <c r="HK1" s="7"/>
-      <c r="HL1" s="7"/>
-      <c r="HM1" s="7"/>
-      <c r="HN1" s="7"/>
-      <c r="HO1" s="7"/>
-      <c r="HP1" s="7"/>
-      <c r="HQ1" s="7"/>
-      <c r="HR1" s="7"/>
-      <c r="HS1" s="7"/>
-      <c r="HT1" s="7"/>
-      <c r="HU1" s="7"/>
-      <c r="HV1" s="7"/>
-      <c r="HW1" s="7"/>
-      <c r="HX1" s="7"/>
-      <c r="HY1" s="7"/>
-      <c r="HZ1" s="7"/>
-      <c r="IA1" s="7"/>
-      <c r="IB1" s="7"/>
-      <c r="IC1" s="7"/>
-      <c r="ID1" s="7"/>
-      <c r="IE1" s="7"/>
-      <c r="IF1" s="7"/>
-      <c r="IG1" s="7"/>
-      <c r="IH1" s="7"/>
-      <c r="II1" s="7"/>
-      <c r="IJ1" s="7"/>
-      <c r="IK1" s="7"/>
-      <c r="IL1" s="7"/>
-      <c r="IM1" s="7" t="s">
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="7"/>
-      <c r="IP1" s="7"/>
-      <c r="IQ1" s="7"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="7"/>
-      <c r="IT1" s="7"/>
-      <c r="IU1" s="7"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="7"/>
-      <c r="IX1" s="7"/>
-      <c r="IY1" s="7"/>
-      <c r="IZ1" s="7"/>
-      <c r="JA1" s="7"/>
-      <c r="JB1" s="7"/>
-      <c r="JC1" s="7"/>
-      <c r="JD1" s="7"/>
-      <c r="JE1" s="7"/>
-      <c r="JF1" s="7"/>
-      <c r="JG1" s="7"/>
-      <c r="JH1" s="7"/>
-      <c r="JI1" s="7"/>
-      <c r="JJ1" s="7"/>
-      <c r="JK1" s="7"/>
-      <c r="JL1" s="7"/>
-      <c r="JM1" s="7"/>
-      <c r="JN1" s="7"/>
-      <c r="JO1" s="7"/>
-      <c r="JP1" s="7"/>
-      <c r="JQ1" s="7"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
+      <c r="IQ1" s="1"/>
+      <c r="IR1" s="1"/>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
+      <c r="IU1" s="1"/>
+      <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
+      <c r="JA1" s="1"/>
+      <c r="JB1" s="1"/>
+      <c r="JC1" s="1"/>
+      <c r="JD1" s="1"/>
+      <c r="JE1" s="1"/>
+      <c r="JF1" s="1"/>
+      <c r="JG1" s="1"/>
+      <c r="JH1" s="1"/>
+      <c r="JI1" s="1"/>
+      <c r="JJ1" s="1"/>
+      <c r="JK1" s="1"/>
+      <c r="JL1" s="1"/>
+      <c r="JM1" s="1"/>
+      <c r="JN1" s="1"/>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1" t="n">
+    <row r="2" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="4">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="4">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="4">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="4">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="8">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="4">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="4">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="4">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="4">
         <v>15</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="4">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="4">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="U2" s="8">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="4">
         <v>19</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="4">
         <v>20</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="4">
         <v>21</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="4">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="4">
         <v>23</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="4">
         <v>24</v>
       </c>
-      <c r="AB2" s="8" t="n">
+      <c r="AB2" s="8">
         <v>25</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AC2" s="4">
         <v>26</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AD2" s="4">
         <v>27</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AE2" s="4">
         <v>28</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AF2" s="4">
         <v>29</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AG2" s="4">
         <v>30</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AH2" s="4">
         <v>1</v>
       </c>
-      <c r="AI2" s="8" t="n">
+      <c r="AI2" s="8">
         <v>2</v>
       </c>
-      <c r="AJ2" s="8" t="n">
+      <c r="AJ2" s="8">
         <v>3</v>
       </c>
-      <c r="AK2" s="8" t="n">
+      <c r="AK2" s="8">
         <v>4</v>
       </c>
-      <c r="AL2" s="8" t="n">
+      <c r="AL2" s="8">
         <v>5</v>
       </c>
-      <c r="AM2" s="8" t="n">
+      <c r="AM2" s="8">
         <v>6</v>
       </c>
-      <c r="AN2" s="8" t="n">
+      <c r="AN2" s="8">
         <v>7</v>
       </c>
-      <c r="AO2" s="8" t="n">
+      <c r="AO2" s="8">
         <v>8</v>
       </c>
-      <c r="AP2" s="8" t="n">
+      <c r="AP2" s="8">
         <v>9</v>
       </c>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="4">
         <v>10</v>
       </c>
-      <c r="AR2" s="1" t="n">
+      <c r="AR2" s="4">
         <v>11</v>
       </c>
-      <c r="AS2" s="1" t="n">
+      <c r="AS2" s="4">
         <v>12</v>
       </c>
-      <c r="AT2" s="1" t="n">
+      <c r="AT2" s="4">
         <v>13</v>
       </c>
-      <c r="AU2" s="1" t="n">
+      <c r="AU2" s="4">
         <v>14</v>
       </c>
-      <c r="AV2" s="1" t="n">
+      <c r="AV2" s="4">
         <v>15</v>
       </c>
-      <c r="AW2" s="8" t="n">
+      <c r="AW2" s="8">
         <v>16</v>
       </c>
-      <c r="AX2" s="1" t="n">
+      <c r="AX2" s="4">
         <v>17</v>
       </c>
-      <c r="AY2" s="1" t="n">
+      <c r="AY2" s="4">
         <v>18</v>
       </c>
-      <c r="AZ2" s="1" t="n">
+      <c r="AZ2" s="4">
         <v>19</v>
       </c>
-      <c r="BA2" s="1" t="n">
+      <c r="BA2" s="4">
         <v>20</v>
       </c>
-      <c r="BB2" s="1" t="n">
+      <c r="BB2" s="4">
         <v>21</v>
       </c>
-      <c r="BC2" s="1" t="n">
+      <c r="BC2" s="4">
         <v>22</v>
       </c>
-      <c r="BD2" s="8" t="n">
+      <c r="BD2" s="8">
         <v>23</v>
       </c>
-      <c r="BE2" s="1" t="n">
+      <c r="BE2" s="4">
         <v>24</v>
       </c>
-      <c r="BF2" s="1" t="n">
+      <c r="BF2" s="4">
         <v>25</v>
       </c>
-      <c r="BG2" s="1" t="n">
+      <c r="BG2" s="4">
         <v>26</v>
       </c>
-      <c r="BH2" s="1" t="n">
+      <c r="BH2" s="4">
         <v>27</v>
       </c>
-      <c r="BI2" s="1" t="n">
+      <c r="BI2" s="4">
         <v>28</v>
       </c>
-      <c r="BJ2" s="1" t="n">
+      <c r="BJ2" s="4">
         <v>29</v>
       </c>
-      <c r="BK2" s="8" t="n">
+      <c r="BK2" s="8">
         <v>30</v>
       </c>
-      <c r="BL2" s="1" t="n">
+      <c r="BL2" s="4">
         <v>31</v>
       </c>
-      <c r="BM2" s="1" t="n">
+      <c r="BM2" s="4">
         <v>1</v>
       </c>
-      <c r="BN2" s="1" t="n">
+      <c r="BN2" s="4">
         <v>2</v>
       </c>
-      <c r="BO2" s="1" t="n">
+      <c r="BO2" s="4">
         <v>3</v>
       </c>
-      <c r="BP2" s="8" t="n">
+      <c r="BP2" s="8">
         <v>4</v>
       </c>
-      <c r="BQ2" s="1" t="n">
+      <c r="BQ2" s="4">
         <v>5</v>
       </c>
-      <c r="BR2" s="8" t="n">
+      <c r="BR2" s="8">
         <v>6</v>
       </c>
-      <c r="BS2" s="1" t="n">
+      <c r="BS2" s="4">
         <v>7</v>
       </c>
-      <c r="BT2" s="1" t="n">
+      <c r="BT2" s="4">
         <v>8</v>
       </c>
-      <c r="BU2" s="1" t="n">
+      <c r="BU2" s="4">
         <v>9</v>
       </c>
-      <c r="BV2" s="1" t="n">
+      <c r="BV2" s="4">
         <v>10</v>
       </c>
-      <c r="BW2" s="1" t="n">
+      <c r="BW2" s="4">
         <v>11</v>
       </c>
-      <c r="BX2" s="1" t="n">
+      <c r="BX2" s="4">
         <v>12</v>
       </c>
-      <c r="BY2" s="8" t="n">
+      <c r="BY2" s="8">
         <v>13</v>
       </c>
-      <c r="BZ2" s="8" t="n">
+      <c r="BZ2" s="8">
         <v>14</v>
       </c>
-      <c r="CA2" s="8" t="n">
+      <c r="CA2" s="8">
         <v>15</v>
       </c>
-      <c r="CB2" s="8" t="n">
+      <c r="CB2" s="8">
         <v>16</v>
       </c>
-      <c r="CC2" s="8" t="n">
+      <c r="CC2" s="8">
         <v>17</v>
       </c>
-      <c r="CD2" s="8" t="n">
+      <c r="CD2" s="8">
         <v>18</v>
       </c>
-      <c r="CE2" s="8" t="n">
+      <c r="CE2" s="8">
         <v>19</v>
       </c>
-      <c r="CF2" s="8" t="n">
+      <c r="CF2" s="8">
         <v>20</v>
       </c>
-      <c r="CG2" s="1" t="n">
+      <c r="CG2" s="4">
         <v>21</v>
       </c>
-      <c r="CH2" s="1" t="n">
+      <c r="CH2" s="4">
         <v>22</v>
       </c>
-      <c r="CI2" s="1" t="n">
+      <c r="CI2" s="4">
         <v>23</v>
       </c>
-      <c r="CJ2" s="1" t="n">
+      <c r="CJ2" s="4">
         <v>24</v>
       </c>
-      <c r="CK2" s="1" t="n">
+      <c r="CK2" s="4">
         <v>25</v>
       </c>
-      <c r="CL2" s="1" t="n">
+      <c r="CL2" s="4">
         <v>26</v>
       </c>
-      <c r="CM2" s="8" t="n">
+      <c r="CM2" s="8">
         <v>27</v>
       </c>
-      <c r="CN2" s="1" t="n">
+      <c r="CN2" s="4">
         <v>28</v>
       </c>
-      <c r="CO2" s="1" t="n">
+      <c r="CO2" s="4">
         <v>29</v>
       </c>
-      <c r="CP2" s="1" t="n">
+      <c r="CP2" s="4">
         <v>30</v>
       </c>
-      <c r="CQ2" s="1" t="n">
+      <c r="CQ2" s="4">
         <v>1</v>
       </c>
-      <c r="CR2" s="1" t="n">
+      <c r="CR2" s="4">
         <v>2</v>
       </c>
-      <c r="CS2" s="1" t="n">
+      <c r="CS2" s="4">
         <v>3</v>
       </c>
-      <c r="CT2" s="8" t="n">
+      <c r="CT2" s="8">
         <v>4</v>
       </c>
-      <c r="CU2" s="1" t="n">
+      <c r="CU2" s="4">
         <v>5</v>
       </c>
-      <c r="CV2" s="1" t="n">
+      <c r="CV2" s="4">
         <v>6</v>
       </c>
-      <c r="CW2" s="1" t="n">
+      <c r="CW2" s="4">
         <v>7</v>
       </c>
-      <c r="CX2" s="1" t="n">
+      <c r="CX2" s="4">
         <v>8</v>
       </c>
-      <c r="CY2" s="1" t="n">
+      <c r="CY2" s="4">
         <v>9</v>
       </c>
-      <c r="CZ2" s="1" t="n">
+      <c r="CZ2" s="4">
         <v>10</v>
       </c>
-      <c r="DA2" s="8" t="n">
+      <c r="DA2" s="8">
         <v>11</v>
       </c>
-      <c r="DB2" s="1" t="n">
+      <c r="DB2" s="4">
         <v>12</v>
       </c>
-      <c r="DC2" s="1" t="n">
+      <c r="DC2" s="4">
         <v>13</v>
       </c>
-      <c r="DD2" s="1" t="n">
+      <c r="DD2" s="4">
         <v>14</v>
       </c>
-      <c r="DE2" s="1" t="n">
+      <c r="DE2" s="4">
         <v>15</v>
       </c>
-      <c r="DF2" s="1" t="n">
+      <c r="DF2" s="4">
         <v>16</v>
       </c>
-      <c r="DG2" s="1" t="n">
+      <c r="DG2" s="4">
         <v>17</v>
       </c>
-      <c r="DH2" s="8" t="n">
+      <c r="DH2" s="8">
         <v>18</v>
       </c>
-      <c r="DI2" s="1" t="n">
+      <c r="DI2" s="4">
         <v>19</v>
       </c>
-      <c r="DJ2" s="1" t="n">
+      <c r="DJ2" s="4">
         <v>20</v>
       </c>
-      <c r="DK2" s="1" t="n">
+      <c r="DK2" s="4">
         <v>21</v>
       </c>
-      <c r="DL2" s="1" t="n">
+      <c r="DL2" s="4">
         <v>22</v>
       </c>
-      <c r="DM2" s="1" t="n">
+      <c r="DM2" s="4">
         <v>23</v>
       </c>
-      <c r="DN2" s="1" t="n">
+      <c r="DN2" s="4">
         <v>24</v>
       </c>
-      <c r="DO2" s="8" t="n">
+      <c r="DO2" s="8">
         <v>25</v>
       </c>
-      <c r="DP2" s="1" t="n">
+      <c r="DP2" s="4">
         <v>26</v>
       </c>
-      <c r="DQ2" s="1" t="n">
+      <c r="DQ2" s="4">
         <v>27</v>
       </c>
-      <c r="DR2" s="1" t="n">
+      <c r="DR2" s="4">
         <v>28</v>
       </c>
-      <c r="DS2" s="1" t="n">
+      <c r="DS2" s="4">
         <v>29</v>
       </c>
-      <c r="DT2" s="1" t="n">
+      <c r="DT2" s="4">
         <v>30</v>
       </c>
-      <c r="DU2" s="8" t="n">
+      <c r="DU2" s="8">
         <v>31</v>
       </c>
-      <c r="DV2" s="8" t="n">
+      <c r="DV2" s="8">
         <v>1</v>
       </c>
-      <c r="DW2" s="8" t="n">
+      <c r="DW2" s="8">
         <v>2</v>
       </c>
-      <c r="DX2" s="8" t="n">
+      <c r="DX2" s="8">
         <v>3</v>
       </c>
-      <c r="DY2" s="8" t="n">
+      <c r="DY2" s="8">
         <v>4</v>
       </c>
-      <c r="DZ2" s="8" t="n">
+      <c r="DZ2" s="8">
         <v>5</v>
       </c>
-      <c r="EA2" s="8" t="n">
+      <c r="EA2" s="8">
         <v>6</v>
       </c>
-      <c r="EB2" s="8" t="n">
+      <c r="EB2" s="8">
         <v>7</v>
       </c>
-      <c r="EC2" s="8" t="n">
+      <c r="EC2" s="8">
         <v>8</v>
       </c>
-      <c r="ED2" s="8" t="n">
+      <c r="ED2" s="8">
         <v>9</v>
       </c>
-      <c r="EE2" s="1" t="n">
+      <c r="EE2" s="4">
         <v>10</v>
       </c>
-      <c r="EF2" s="1" t="n">
+      <c r="EF2" s="4">
         <v>11</v>
       </c>
-      <c r="EG2" s="1" t="n">
+      <c r="EG2" s="4">
         <v>12</v>
       </c>
-      <c r="EH2" s="1" t="n">
+      <c r="EH2" s="4">
         <v>13</v>
       </c>
-      <c r="EI2" s="1" t="n">
+      <c r="EI2" s="4">
         <v>14</v>
       </c>
-      <c r="EJ2" s="8" t="n">
+      <c r="EJ2" s="8">
         <v>15</v>
       </c>
-      <c r="EK2" s="1" t="n">
+      <c r="EK2" s="4">
         <v>16</v>
       </c>
-      <c r="EL2" s="1" t="n">
+      <c r="EL2" s="4">
         <v>17</v>
       </c>
-      <c r="EM2" s="1" t="n">
+      <c r="EM2" s="4">
         <v>18</v>
       </c>
-      <c r="EN2" s="1" t="n">
+      <c r="EN2" s="4">
         <v>19</v>
       </c>
-      <c r="EO2" s="1" t="n">
+      <c r="EO2" s="4">
         <v>20</v>
       </c>
-      <c r="EP2" s="1" t="n">
+      <c r="EP2" s="4">
         <v>21</v>
       </c>
-      <c r="EQ2" s="8" t="n">
+      <c r="EQ2" s="8">
         <v>22</v>
       </c>
-      <c r="ER2" s="1" t="n">
+      <c r="ER2" s="4">
         <v>23</v>
       </c>
-      <c r="ES2" s="1" t="n">
+      <c r="ES2" s="4">
         <v>24</v>
       </c>
-      <c r="ET2" s="1" t="n">
+      <c r="ET2" s="4">
         <v>25</v>
       </c>
-      <c r="EU2" s="1" t="n">
+      <c r="EU2" s="4">
         <v>26</v>
       </c>
-      <c r="EV2" s="1" t="n">
+      <c r="EV2" s="4">
         <v>27</v>
       </c>
-      <c r="EW2" s="1" t="n">
+      <c r="EW2" s="4">
         <v>28</v>
       </c>
-      <c r="EX2" s="8" t="n">
+      <c r="EX2" s="8">
         <v>29</v>
       </c>
-      <c r="EY2" s="1" t="n">
+      <c r="EY2" s="4">
         <v>30</v>
       </c>
-      <c r="EZ2" s="1" t="n">
+      <c r="EZ2" s="4">
         <v>31</v>
       </c>
-      <c r="FA2" s="1" t="n">
+      <c r="FA2" s="4">
         <v>1</v>
       </c>
-      <c r="FB2" s="1" t="n">
+      <c r="FB2" s="4">
         <v>2</v>
       </c>
-      <c r="FC2" s="1" t="n">
+      <c r="FC2" s="4">
         <v>3</v>
       </c>
-      <c r="FD2" s="1" t="n">
+      <c r="FD2" s="4">
         <v>4</v>
       </c>
-      <c r="FE2" s="8" t="n">
+      <c r="FE2" s="8">
         <v>5</v>
       </c>
-      <c r="FF2" s="1" t="n">
+      <c r="FF2" s="4">
         <v>6</v>
       </c>
-      <c r="FG2" s="1" t="n">
+      <c r="FG2" s="4">
         <v>7</v>
       </c>
-      <c r="FH2" s="1" t="n">
+      <c r="FH2" s="4">
         <v>8</v>
       </c>
-      <c r="FI2" s="1" t="n">
+      <c r="FI2" s="4">
         <v>9</v>
       </c>
-      <c r="FJ2" s="1" t="n">
+      <c r="FJ2" s="4">
         <v>10</v>
       </c>
-      <c r="FK2" s="1" t="n">
+      <c r="FK2" s="4">
         <v>11</v>
       </c>
-      <c r="FL2" s="1" t="n">
+      <c r="FL2" s="4">
         <v>12</v>
       </c>
-      <c r="FM2" s="1" t="n">
+      <c r="FM2" s="4">
         <v>13</v>
       </c>
-      <c r="FN2" s="1" t="n">
+      <c r="FN2" s="4">
         <v>14</v>
       </c>
-      <c r="FO2" s="1" t="n">
+      <c r="FO2" s="4">
         <v>15</v>
       </c>
-      <c r="FP2" s="1" t="n">
+      <c r="FP2" s="4">
         <v>16</v>
       </c>
-      <c r="FQ2" s="1" t="n">
+      <c r="FQ2" s="4">
         <v>17</v>
       </c>
-      <c r="FR2" s="1" t="n">
+      <c r="FR2" s="4">
         <v>18</v>
       </c>
-      <c r="FS2" s="1" t="n">
+      <c r="FS2" s="4">
         <v>19</v>
       </c>
-      <c r="FT2" s="1" t="n">
+      <c r="FT2" s="4">
         <v>20</v>
       </c>
-      <c r="FU2" s="1" t="n">
+      <c r="FU2" s="4">
         <v>21</v>
       </c>
-      <c r="FV2" s="1" t="n">
+      <c r="FV2" s="4">
         <v>22</v>
       </c>
-      <c r="FW2" s="1" t="n">
+      <c r="FW2" s="4">
         <v>23</v>
       </c>
-      <c r="FX2" s="1" t="n">
+      <c r="FX2" s="4">
         <v>24</v>
       </c>
-      <c r="FY2" s="1" t="n">
+      <c r="FY2" s="4">
         <v>25</v>
       </c>
-      <c r="FZ2" s="1" t="n">
+      <c r="FZ2" s="4">
         <v>26</v>
       </c>
-      <c r="GA2" s="1" t="n">
+      <c r="GA2" s="4">
         <v>27</v>
       </c>
-      <c r="GB2" s="1" t="n">
+      <c r="GB2" s="4">
         <v>28</v>
       </c>
-      <c r="GC2" s="1" t="n">
+      <c r="GC2" s="4">
         <v>29</v>
       </c>
-      <c r="GD2" s="1" t="n">
+      <c r="GD2" s="4">
         <v>1</v>
       </c>
-      <c r="GE2" s="1" t="n">
+      <c r="GE2" s="4">
         <v>2</v>
       </c>
-      <c r="GF2" s="1" t="n">
+      <c r="GF2" s="4">
         <v>3</v>
       </c>
-      <c r="GG2" s="1" t="n">
+      <c r="GG2" s="4">
         <v>4</v>
       </c>
-      <c r="GH2" s="1" t="n">
+      <c r="GH2" s="4">
         <v>5</v>
       </c>
-      <c r="GI2" s="1" t="n">
+      <c r="GI2" s="4">
         <v>6</v>
       </c>
-      <c r="GJ2" s="1" t="n">
+      <c r="GJ2" s="4">
         <v>7</v>
       </c>
-      <c r="GK2" s="1" t="n">
+      <c r="GK2" s="4">
         <v>8</v>
       </c>
-      <c r="GL2" s="1" t="n">
+      <c r="GL2" s="4">
         <v>9</v>
       </c>
-      <c r="GM2" s="1" t="n">
+      <c r="GM2" s="4">
         <v>10</v>
       </c>
-      <c r="GN2" s="1" t="n">
+      <c r="GN2" s="4">
         <v>11</v>
       </c>
-      <c r="GO2" s="1" t="n">
+      <c r="GO2" s="4">
         <v>12</v>
       </c>
-      <c r="GP2" s="1" t="n">
+      <c r="GP2" s="4">
         <v>13</v>
       </c>
-      <c r="GQ2" s="1" t="n">
+      <c r="GQ2" s="4">
         <v>14</v>
       </c>
-      <c r="GR2" s="1" t="n">
+      <c r="GR2" s="4">
         <v>15</v>
       </c>
-      <c r="GS2" s="1" t="n">
+      <c r="GS2" s="4">
         <v>16</v>
       </c>
-      <c r="GT2" s="1" t="n">
+      <c r="GT2" s="4">
         <v>17</v>
       </c>
-      <c r="GU2" s="1" t="n">
+      <c r="GU2" s="4">
         <v>18</v>
       </c>
-      <c r="GV2" s="1" t="n">
+      <c r="GV2" s="4">
         <v>19</v>
       </c>
-      <c r="GW2" s="1" t="n">
+      <c r="GW2" s="4">
         <v>20</v>
       </c>
-      <c r="GX2" s="1" t="n">
+      <c r="GX2" s="4">
         <v>21</v>
       </c>
-      <c r="GY2" s="1" t="n">
+      <c r="GY2" s="4">
         <v>22</v>
       </c>
-      <c r="GZ2" s="1" t="n">
+      <c r="GZ2" s="4">
         <v>23</v>
       </c>
-      <c r="HA2" s="1" t="n">
+      <c r="HA2" s="4">
         <v>24</v>
       </c>
-      <c r="HB2" s="1" t="n">
+      <c r="HB2" s="4">
         <v>25</v>
       </c>
-      <c r="HC2" s="1" t="n">
+      <c r="HC2" s="4">
         <v>26</v>
       </c>
-      <c r="HD2" s="1" t="n">
+      <c r="HD2" s="4">
         <v>27</v>
       </c>
-      <c r="HE2" s="1" t="n">
+      <c r="HE2" s="4">
         <v>28</v>
       </c>
-      <c r="HF2" s="1" t="n">
+      <c r="HF2" s="4">
         <v>29</v>
       </c>
-      <c r="HG2" s="1" t="n">
+      <c r="HG2" s="4">
         <v>30</v>
       </c>
-      <c r="HH2" s="1" t="n">
+      <c r="HH2" s="4">
         <v>31</v>
       </c>
-      <c r="HI2" s="1" t="n">
+      <c r="HI2" s="4">
         <v>1</v>
       </c>
-      <c r="HJ2" s="1" t="n">
+      <c r="HJ2" s="4">
         <v>2</v>
       </c>
-      <c r="HK2" s="1" t="n">
+      <c r="HK2" s="4">
         <v>3</v>
       </c>
-      <c r="HL2" s="1" t="n">
+      <c r="HL2" s="4">
         <v>4</v>
       </c>
-      <c r="HM2" s="1" t="n">
+      <c r="HM2" s="4">
         <v>5</v>
       </c>
-      <c r="HN2" s="1" t="n">
+      <c r="HN2" s="4">
         <v>6</v>
       </c>
-      <c r="HO2" s="1" t="n">
+      <c r="HO2" s="4">
         <v>7</v>
       </c>
-      <c r="HP2" s="1" t="n">
+      <c r="HP2" s="4">
         <v>8</v>
       </c>
-      <c r="HQ2" s="1" t="n">
+      <c r="HQ2" s="4">
         <v>9</v>
       </c>
-      <c r="HR2" s="1" t="n">
+      <c r="HR2" s="4">
         <v>10</v>
       </c>
-      <c r="HS2" s="1" t="n">
+      <c r="HS2" s="4">
         <v>11</v>
       </c>
-      <c r="HT2" s="1" t="n">
+      <c r="HT2" s="4">
         <v>12</v>
       </c>
-      <c r="HU2" s="1" t="n">
+      <c r="HU2" s="4">
         <v>13</v>
       </c>
-      <c r="HV2" s="1" t="n">
+      <c r="HV2" s="4">
         <v>14</v>
       </c>
-      <c r="HW2" s="1" t="n">
+      <c r="HW2" s="4">
         <v>15</v>
       </c>
-      <c r="HX2" s="1" t="n">
+      <c r="HX2" s="4">
         <v>16</v>
       </c>
-      <c r="HY2" s="1" t="n">
+      <c r="HY2" s="4">
         <v>17</v>
       </c>
-      <c r="HZ2" s="1" t="n">
+      <c r="HZ2" s="4">
         <v>18</v>
       </c>
-      <c r="IA2" s="1" t="n">
+      <c r="IA2" s="4">
         <v>19</v>
       </c>
-      <c r="IB2" s="1" t="n">
+      <c r="IB2" s="4">
         <v>20</v>
       </c>
-      <c r="IC2" s="1" t="n">
+      <c r="IC2" s="4">
         <v>21</v>
       </c>
-      <c r="ID2" s="1" t="n">
+      <c r="ID2" s="4">
         <v>22</v>
       </c>
-      <c r="IE2" s="1" t="n">
+      <c r="IE2" s="4">
         <v>23</v>
       </c>
-      <c r="IF2" s="1" t="n">
+      <c r="IF2" s="4">
         <v>24</v>
       </c>
-      <c r="IG2" s="1" t="n">
+      <c r="IG2" s="4">
         <v>25</v>
       </c>
-      <c r="IH2" s="1" t="n">
+      <c r="IH2" s="4">
         <v>26</v>
       </c>
-      <c r="II2" s="1" t="n">
+      <c r="II2" s="4">
         <v>27</v>
       </c>
-      <c r="IJ2" s="1" t="n">
+      <c r="IJ2" s="4">
         <v>28</v>
       </c>
-      <c r="IK2" s="1" t="n">
+      <c r="IK2" s="4">
         <v>29</v>
       </c>
-      <c r="IL2" s="1" t="n">
+      <c r="IL2" s="4">
         <v>30</v>
       </c>
-      <c r="IM2" s="1" t="n">
+      <c r="IM2" s="4">
         <v>1</v>
       </c>
-      <c r="IN2" s="1" t="n">
+      <c r="IN2" s="4">
         <v>2</v>
       </c>
-      <c r="IO2" s="1" t="n">
+      <c r="IO2" s="4">
         <v>3</v>
       </c>
-      <c r="IP2" s="1" t="n">
+      <c r="IP2" s="4">
         <v>4</v>
       </c>
-      <c r="IQ2" s="1" t="n">
+      <c r="IQ2" s="4">
         <v>5</v>
       </c>
-      <c r="IR2" s="1" t="n">
+      <c r="IR2" s="4">
         <v>6</v>
       </c>
-      <c r="IS2" s="1" t="n">
+      <c r="IS2" s="4">
         <v>7</v>
       </c>
-      <c r="IT2" s="1" t="n">
+      <c r="IT2" s="4">
         <v>8</v>
       </c>
-      <c r="IU2" s="1" t="n">
+      <c r="IU2" s="4">
         <v>9</v>
       </c>
-      <c r="IV2" s="1" t="n">
+      <c r="IV2" s="4">
         <v>10</v>
       </c>
-      <c r="IW2" s="1" t="n">
+      <c r="IW2" s="4">
         <v>11</v>
       </c>
-      <c r="IX2" s="1" t="n">
+      <c r="IX2" s="4">
         <v>12</v>
       </c>
-      <c r="IY2" s="1" t="n">
+      <c r="IY2" s="4">
         <v>13</v>
       </c>
-      <c r="IZ2" s="1" t="n">
+      <c r="IZ2" s="4">
         <v>14</v>
       </c>
-      <c r="JA2" s="1" t="n">
+      <c r="JA2" s="4">
         <v>15</v>
       </c>
-      <c r="JB2" s="1" t="n">
+      <c r="JB2" s="4">
         <v>16</v>
       </c>
-      <c r="JC2" s="1" t="n">
+      <c r="JC2" s="4">
         <v>17</v>
       </c>
-      <c r="JD2" s="1" t="n">
+      <c r="JD2" s="4">
         <v>18</v>
       </c>
-      <c r="JE2" s="1" t="n">
+      <c r="JE2" s="4">
         <v>19</v>
       </c>
-      <c r="JF2" s="1" t="n">
+      <c r="JF2" s="4">
         <v>20</v>
       </c>
-      <c r="JG2" s="1" t="n">
+      <c r="JG2" s="4">
         <v>21</v>
       </c>
-      <c r="JH2" s="1" t="n">
+      <c r="JH2" s="4">
         <v>22</v>
       </c>
-      <c r="JI2" s="1" t="n">
+      <c r="JI2" s="4">
         <v>23</v>
       </c>
-      <c r="JJ2" s="1" t="n">
+      <c r="JJ2" s="4">
         <v>24</v>
       </c>
-      <c r="JK2" s="1" t="n">
+      <c r="JK2" s="4">
         <v>25</v>
       </c>
-      <c r="JL2" s="1" t="n">
+      <c r="JL2" s="4">
         <v>26</v>
       </c>
-      <c r="JM2" s="1" t="n">
+      <c r="JM2" s="4">
         <v>27</v>
       </c>
-      <c r="JN2" s="1" t="n">
+      <c r="JN2" s="4">
         <v>28</v>
       </c>
-      <c r="JO2" s="1" t="n">
+      <c r="JO2" s="4">
         <v>29</v>
       </c>
-      <c r="JP2" s="1" t="n">
+      <c r="JP2" s="4">
         <v>30</v>
       </c>
-      <c r="JQ2" s="1" t="n">
+      <c r="JQ2" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="1" t="n">
-        <f aca="false">COUNTA(H3:JQ3)</f>
-        <v>1</v>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C34" si="0">COUNTA(H3:JQ3)</f>
+        <v>0</v>
       </c>
       <c r="N3" s="8"/>
       <c r="U3" s="8"/>
@@ -1685,20 +1905,17 @@
       <c r="EQ3" s="8"/>
       <c r="EX3" s="8"/>
       <c r="FE3" s="8"/>
-      <c r="GL3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="11">
         <v>42379</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">COUNTA(H4:JQ4)</f>
-        <v>1</v>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N4" s="8"/>
       <c r="U4" s="8"/>
@@ -1743,20 +1960,17 @@
       <c r="EQ4" s="8"/>
       <c r="EX4" s="8"/>
       <c r="FE4" s="8"/>
-      <c r="GL4" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>42379</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">COUNTA(H5:JQ5)</f>
-        <v>1</v>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N5" s="8"/>
       <c r="U5" s="8"/>
@@ -1801,20 +2015,17 @@
       <c r="EQ5" s="8"/>
       <c r="EX5" s="8"/>
       <c r="FE5" s="8"/>
-      <c r="GL5" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="11">
         <v>42379</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">COUNTA(H6:JQ6)</f>
-        <v>1</v>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N6" s="8"/>
       <c r="U6" s="8"/>
@@ -1859,20 +2070,17 @@
       <c r="EQ6" s="8"/>
       <c r="EX6" s="8"/>
       <c r="FE6" s="8"/>
-      <c r="GL6" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="11">
         <v>42379</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">COUNTA(H7:JQ7)</f>
-        <v>1</v>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N7" s="8"/>
       <c r="U7" s="8"/>
@@ -1917,20 +2125,17 @@
       <c r="EQ7" s="8"/>
       <c r="EX7" s="8"/>
       <c r="FE7" s="8"/>
-      <c r="GL7" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="11">
         <v>42379</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">COUNTA(H8:JQ8)</f>
-        <v>1</v>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N8" s="8"/>
       <c r="U8" s="8"/>
@@ -1975,20 +2180,17 @@
       <c r="EQ8" s="8"/>
       <c r="EX8" s="8"/>
       <c r="FE8" s="8"/>
-      <c r="GL8" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="11">
         <v>42379</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">COUNTA(H9:JQ9)</f>
-        <v>1</v>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N9" s="8"/>
       <c r="U9" s="8"/>
@@ -2033,20 +2235,17 @@
       <c r="EQ9" s="8"/>
       <c r="EX9" s="8"/>
       <c r="FE9" s="8"/>
-      <c r="GL9" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="11">
         <v>42379</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">COUNTA(H10:JQ10)</f>
-        <v>2</v>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N10" s="8"/>
       <c r="U10" s="8"/>
@@ -2089,25 +2288,22 @@
       <c r="ED10" s="8"/>
       <c r="EJ10" s="8"/>
       <c r="EQ10" s="8"/>
-      <c r="ER10" s="1" t="s">
+      <c r="ER10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="EX10" s="8"/>
       <c r="FE10" s="8"/>
-      <c r="GL10" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="11">
         <v>42379</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">COUNTA(H11:JQ11)</f>
-        <v>1</v>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N11" s="8"/>
       <c r="U11" s="8"/>
@@ -2152,20 +2348,17 @@
       <c r="EQ11" s="8"/>
       <c r="EX11" s="8"/>
       <c r="FE11" s="8"/>
-      <c r="GL11" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:277" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="11">
         <v>42379</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">COUNTA(H12:JQ12)</f>
-        <v>1</v>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N12" s="8"/>
       <c r="Q12" s="12"/>
@@ -2211,20 +2404,17 @@
       <c r="EQ12" s="8"/>
       <c r="EX12" s="8"/>
       <c r="FE12" s="8"/>
-      <c r="GL12" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="11">
         <v>42379</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">COUNTA(H13:JQ13)</f>
-        <v>1</v>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N13" s="8"/>
       <c r="U13" s="8"/>
@@ -2269,20 +2459,17 @@
       <c r="EQ13" s="8"/>
       <c r="EX13" s="8"/>
       <c r="FE13" s="8"/>
-      <c r="GL13" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="11">
         <v>42379</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">COUNTA(H14:JQ14)</f>
-        <v>1</v>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N14" s="8"/>
       <c r="U14" s="8"/>
@@ -2327,20 +2514,17 @@
       <c r="EQ14" s="8"/>
       <c r="EX14" s="8"/>
       <c r="FE14" s="8"/>
-      <c r="GL14" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="11">
         <v>42379</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">COUNTA(H15:JQ15)</f>
-        <v>1</v>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N15" s="8"/>
       <c r="U15" s="8"/>
@@ -2385,20 +2569,17 @@
       <c r="EQ15" s="8"/>
       <c r="EX15" s="8"/>
       <c r="FE15" s="8"/>
-      <c r="GL15" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="11">
         <v>42379</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">COUNTA(H16:JQ16)</f>
-        <v>1</v>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N16" s="8"/>
       <c r="U16" s="8"/>
@@ -2443,20 +2624,17 @@
       <c r="EQ16" s="8"/>
       <c r="EX16" s="8"/>
       <c r="FE16" s="8"/>
-      <c r="GL16" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="11">
         <v>42379</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">COUNTA(H17:JQ17)</f>
-        <v>1</v>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N17" s="8"/>
       <c r="U17" s="8"/>
@@ -2501,20 +2679,17 @@
       <c r="EQ17" s="8"/>
       <c r="EX17" s="8"/>
       <c r="FE17" s="8"/>
-      <c r="GL17" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:277" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="11">
         <v>42379</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">COUNTA(H18:JQ18)</f>
-        <v>1</v>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -2562,20 +2737,17 @@
       <c r="EQ18" s="8"/>
       <c r="EX18" s="8"/>
       <c r="FE18" s="8"/>
-      <c r="GL18" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="11">
         <v>42379</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">COUNTA(H19:JQ19)</f>
-        <v>1</v>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N19" s="8"/>
       <c r="U19" s="8"/>
@@ -2620,20 +2792,17 @@
       <c r="EQ19" s="8"/>
       <c r="EX19" s="8"/>
       <c r="FE19" s="8"/>
-      <c r="GL19" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="11">
         <v>42379</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">COUNTA(H20:JQ20)</f>
-        <v>1</v>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N20" s="8"/>
       <c r="U20" s="8"/>
@@ -2678,20 +2847,17 @@
       <c r="EQ20" s="8"/>
       <c r="EX20" s="8"/>
       <c r="FE20" s="8"/>
-      <c r="GL20" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="11">
         <v>42379</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">COUNTA(H21:JQ21)</f>
-        <v>1</v>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N21" s="8"/>
       <c r="U21" s="8"/>
@@ -2736,19 +2902,16 @@
       <c r="EQ21" s="8"/>
       <c r="EX21" s="8"/>
       <c r="FE21" s="8"/>
-      <c r="GL21" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="11">
         <v>42379</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">COUNTA(H22:JQ22)</f>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N22" s="8"/>
@@ -2794,19 +2957,19 @@
       <c r="EQ22" s="8"/>
       <c r="EX22" s="8"/>
       <c r="FE22" s="8"/>
-      <c r="GL22" s="1" t="s">
+      <c r="GL22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="11">
         <v>42379</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">COUNTA(H23:JQ23)</f>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N23" s="8"/>
@@ -2852,19 +3015,19 @@
       <c r="EQ23" s="8"/>
       <c r="EX23" s="8"/>
       <c r="FE23" s="8"/>
-      <c r="GL23" s="1" t="s">
+      <c r="GL23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="11">
         <v>42379</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">COUNTA(H24:JQ24)</f>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N24" s="8"/>
@@ -2910,19 +3073,19 @@
       <c r="EQ24" s="8"/>
       <c r="EX24" s="8"/>
       <c r="FE24" s="8"/>
-      <c r="GL24" s="1" t="s">
+      <c r="GL24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="11">
         <v>42379</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">COUNTA(H25:JQ25)</f>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N25" s="8"/>
@@ -2968,19 +3131,19 @@
       <c r="EQ25" s="8"/>
       <c r="EX25" s="8"/>
       <c r="FE25" s="8"/>
-      <c r="GL25" s="1" t="s">
+      <c r="GL25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="11">
         <v>42379</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">COUNTA(H26:JQ26)</f>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N26" s="8"/>
@@ -3026,19 +3189,19 @@
       <c r="EQ26" s="8"/>
       <c r="EX26" s="8"/>
       <c r="FE26" s="8"/>
-      <c r="GL26" s="1" t="s">
+      <c r="GL26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="11">
         <v>42379</v>
       </c>
-      <c r="C27" s="15" t="n">
-        <f aca="false">COUNTA(H27:JQ27)</f>
+      <c r="C27" s="15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D27" s="15"/>
@@ -3231,7 +3394,7 @@
       <c r="GI27" s="15"/>
       <c r="GJ27" s="15"/>
       <c r="GK27" s="15"/>
-      <c r="GL27" s="1" t="s">
+      <c r="GL27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="GM27" s="15"/>
@@ -3318,15 +3481,15 @@
       <c r="JP27" s="15"/>
       <c r="JQ27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="11">
         <v>42379</v>
       </c>
-      <c r="C28" s="15" t="n">
-        <f aca="false">COUNTA(H28:JQ28)</f>
+      <c r="C28" s="15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="15"/>
@@ -3519,7 +3682,7 @@
       <c r="GI28" s="15"/>
       <c r="GJ28" s="15"/>
       <c r="GK28" s="15"/>
-      <c r="GL28" s="1" t="s">
+      <c r="GL28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="GM28" s="15"/>
@@ -3606,15 +3769,15 @@
       <c r="JP28" s="15"/>
       <c r="JQ28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="11">
         <v>42379</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">COUNTA(H29:JQ29)</f>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N29" s="8"/>
@@ -3660,19 +3823,19 @@
       <c r="EQ29" s="8"/>
       <c r="EX29" s="8"/>
       <c r="FE29" s="8"/>
-      <c r="GL29" s="1" t="s">
+      <c r="GL29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:277" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="11">
         <v>42379</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <f aca="false">COUNTA(H30:JQ30)</f>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N30" s="8"/>
@@ -3719,19 +3882,19 @@
       <c r="EQ30" s="8"/>
       <c r="EX30" s="8"/>
       <c r="FE30" s="8"/>
-      <c r="GL30" s="1" t="s">
+      <c r="GL30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="11">
         <v>42379</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <f aca="false">COUNTA(H31:JQ31)</f>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N31" s="8"/>
@@ -3777,19 +3940,19 @@
       <c r="EQ31" s="8"/>
       <c r="EX31" s="8"/>
       <c r="FE31" s="8"/>
-      <c r="GL31" s="1" t="s">
+      <c r="GL31" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="11">
         <v>42379</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <f aca="false">COUNTA(H32:JQ32)</f>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N32" s="8"/>
@@ -3835,19 +3998,19 @@
       <c r="EQ32" s="8"/>
       <c r="EX32" s="8"/>
       <c r="FE32" s="8"/>
-      <c r="GL32" s="1" t="s">
+      <c r="GL32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="11">
         <v>42379</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <f aca="false">COUNTA(H33:JQ33)</f>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N33" s="8"/>
@@ -3893,19 +4056,19 @@
       <c r="EQ33" s="8"/>
       <c r="EX33" s="8"/>
       <c r="FE33" s="8"/>
-      <c r="GL33" s="1" t="s">
+      <c r="GL33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="11">
         <v>42379</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <f aca="false">COUNTA(H34:JQ34)</f>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N34" s="8"/>
@@ -3951,19 +4114,19 @@
       <c r="EQ34" s="8"/>
       <c r="EX34" s="8"/>
       <c r="FE34" s="8"/>
-      <c r="GL34" s="1" t="s">
+      <c r="GL34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="11">
         <v>42379</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <f aca="false">COUNTA(H35:JQ35)</f>
+      <c r="C35" s="4">
+        <f t="shared" ref="C35:C53" si="1">COUNTA(H35:JQ35)</f>
         <v>1</v>
       </c>
       <c r="N35" s="8"/>
@@ -4009,19 +4172,19 @@
       <c r="EQ35" s="8"/>
       <c r="EX35" s="8"/>
       <c r="FE35" s="8"/>
-      <c r="GL35" s="1" t="s">
+      <c r="GL35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="11">
         <v>42379</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <f aca="false">COUNTA(H36:JQ36)</f>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N36" s="8"/>
@@ -4067,19 +4230,19 @@
       <c r="EQ36" s="8"/>
       <c r="EX36" s="8"/>
       <c r="FE36" s="8"/>
-      <c r="GL36" s="1" t="s">
+      <c r="GL36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="11">
         <v>42379</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <f aca="false">COUNTA(H37:JQ37)</f>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N37" s="8"/>
@@ -4125,19 +4288,19 @@
       <c r="EQ37" s="8"/>
       <c r="EX37" s="8"/>
       <c r="FE37" s="8"/>
-      <c r="GL37" s="1" t="s">
+      <c r="GL37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="11">
         <v>42379</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <f aca="false">COUNTA(H38:JQ38)</f>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N38" s="8"/>
@@ -4183,19 +4346,19 @@
       <c r="EQ38" s="8"/>
       <c r="EX38" s="8"/>
       <c r="FE38" s="8"/>
-      <c r="GL38" s="1" t="s">
+      <c r="GL38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="11">
         <v>42379</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <f aca="false">COUNTA(H39:JQ39)</f>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N39" s="8"/>
@@ -4241,19 +4404,19 @@
       <c r="EQ39" s="8"/>
       <c r="EX39" s="8"/>
       <c r="FE39" s="8"/>
-      <c r="GL39" s="1" t="s">
+      <c r="GL39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="11">
         <v>42379</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <f aca="false">COUNTA(H40:JQ40)</f>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N40" s="8"/>
@@ -4299,19 +4462,19 @@
       <c r="EQ40" s="8"/>
       <c r="EX40" s="8"/>
       <c r="FE40" s="8"/>
-      <c r="GL40" s="1" t="s">
+      <c r="GL40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="11">
         <v>42379</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <f aca="false">COUNTA(H41:JQ41)</f>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N41" s="8"/>
@@ -4357,19 +4520,19 @@
       <c r="EQ41" s="8"/>
       <c r="EX41" s="8"/>
       <c r="FE41" s="8"/>
-      <c r="GL41" s="1" t="s">
+      <c r="GL41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="11">
         <v>42379</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <f aca="false">COUNTA(H42:JQ42)</f>
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N42" s="8"/>
@@ -4415,19 +4578,19 @@
       <c r="EQ42" s="8"/>
       <c r="EX42" s="8"/>
       <c r="FE42" s="8"/>
-      <c r="GL42" s="1" t="s">
+      <c r="GL42" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="11">
         <v>42379</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <f aca="false">COUNTA(H43:JQ43)</f>
+      <c r="C43" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N43" s="8"/>
@@ -4473,19 +4636,19 @@
       <c r="EQ43" s="8"/>
       <c r="EX43" s="8"/>
       <c r="FE43" s="8"/>
-      <c r="GL43" s="1" t="s">
+      <c r="GL43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="11">
         <v>42379</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <f aca="false">COUNTA(H44:JQ44)</f>
+      <c r="C44" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N44" s="8"/>
@@ -4531,19 +4694,19 @@
       <c r="EQ44" s="8"/>
       <c r="EX44" s="8"/>
       <c r="FE44" s="8"/>
-      <c r="GL44" s="1" t="s">
+      <c r="GL44" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="11">
         <v>42379</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <f aca="false">COUNTA(H45:JQ45)</f>
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N45" s="8"/>
@@ -4589,19 +4752,19 @@
       <c r="EQ45" s="8"/>
       <c r="EX45" s="8"/>
       <c r="FE45" s="8"/>
-      <c r="GL45" s="1" t="s">
+      <c r="GL45" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="11">
         <v>42379</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <f aca="false">COUNTA(H46:JQ46)</f>
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N46" s="8"/>
@@ -4647,19 +4810,19 @@
       <c r="EQ46" s="8"/>
       <c r="EX46" s="8"/>
       <c r="FE46" s="8"/>
-      <c r="GL46" s="1" t="s">
+      <c r="GL46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="11">
         <v>42379</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <f aca="false">COUNTA(H47:JQ47)</f>
+      <c r="C47" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N47" s="8"/>
@@ -4705,19 +4868,19 @@
       <c r="EQ47" s="8"/>
       <c r="EX47" s="8"/>
       <c r="FE47" s="8"/>
-      <c r="GL47" s="1" t="s">
+      <c r="GL47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:194" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="11">
         <v>42379</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <f aca="false">COUNTA(H48:JQ48)</f>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N48" s="8"/>
@@ -4763,19 +4926,19 @@
       <c r="EQ48" s="8"/>
       <c r="EX48" s="8"/>
       <c r="FE48" s="8"/>
-      <c r="GL48" s="1" t="s">
+      <c r="GL48" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="11">
         <v>42379</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <f aca="false">COUNTA(H49:JQ49)</f>
+      <c r="C49" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N49" s="8"/>
@@ -4821,19 +4984,19 @@
       <c r="EQ49" s="8"/>
       <c r="EX49" s="8"/>
       <c r="FE49" s="8"/>
-      <c r="GL49" s="1" t="s">
+      <c r="GL49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="11">
         <v>42379</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <f aca="false">COUNTA(H50:JQ50)</f>
+      <c r="C50" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N50" s="8"/>
@@ -4879,19 +5042,19 @@
       <c r="EQ50" s="8"/>
       <c r="EX50" s="8"/>
       <c r="FE50" s="8"/>
-      <c r="GL50" s="1" t="s">
+      <c r="GL50" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="11">
         <v>42379</v>
       </c>
-      <c r="C51" s="15" t="n">
-        <f aca="false">COUNTA(H51:JQ51)</f>
+      <c r="C51" s="15">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D51" s="15"/>
@@ -5084,7 +5247,7 @@
       <c r="GI51" s="15"/>
       <c r="GJ51" s="15"/>
       <c r="GK51" s="15"/>
-      <c r="GL51" s="1" t="s">
+      <c r="GL51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="GM51" s="15"/>
@@ -5171,15 +5334,15 @@
       <c r="JP51" s="15"/>
       <c r="JQ51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:277" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="11">
         <v>42379</v>
       </c>
-      <c r="C52" s="15" t="n">
-        <f aca="false">COUNTA(H52:JQ52)</f>
+      <c r="C52" s="15">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D52" s="15"/>
@@ -5372,7 +5535,7 @@
       <c r="GI52" s="15"/>
       <c r="GJ52" s="15"/>
       <c r="GK52" s="15"/>
-      <c r="GL52" s="1" t="s">
+      <c r="GL52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="GM52" s="15"/>
@@ -5459,15 +5622,15 @@
       <c r="JP52" s="15"/>
       <c r="JQ52" s="15"/>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:277" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="11">
         <v>42379</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <f aca="false">COUNTA(H53:JQ53)</f>
+      <c r="C53" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N53" s="8"/>
@@ -5515,11 +5678,11 @@
       <c r="EQ53" s="8"/>
       <c r="EX53" s="8"/>
       <c r="FE53" s="8"/>
-      <c r="GL53" s="1" t="s">
+      <c r="GL53" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N54" s="8"/>
       <c r="U54" s="8"/>
       <c r="AB54" s="8"/>
@@ -5564,7 +5727,7 @@
       <c r="EX54" s="8"/>
       <c r="FE54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="8"/>
       <c r="U55" s="8"/>
       <c r="AB55" s="8"/>
@@ -5609,7 +5772,7 @@
       <c r="EX55" s="8"/>
       <c r="FE55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N56" s="8"/>
       <c r="U56" s="8"/>
       <c r="AB56" s="8"/>
@@ -5654,7 +5817,7 @@
       <c r="EX56" s="8"/>
       <c r="FE56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N57" s="8"/>
       <c r="U57" s="8"/>
       <c r="AB57" s="8"/>
@@ -5699,7 +5862,7 @@
       <c r="EX57" s="8"/>
       <c r="FE57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N58" s="8"/>
       <c r="U58" s="8"/>
       <c r="AB58" s="8"/>
@@ -5746,22 +5909,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="FA1:GC1"/>
+    <mergeCell ref="GD1:HH1"/>
+    <mergeCell ref="HI1:IL1"/>
+    <mergeCell ref="IM1:JQ1"/>
     <mergeCell ref="D1:AG1"/>
     <mergeCell ref="AH1:BL1"/>
     <mergeCell ref="BM1:CP1"/>
     <mergeCell ref="CQ1:DU1"/>
     <mergeCell ref="DV1:EZ1"/>
-    <mergeCell ref="FA1:GC1"/>
-    <mergeCell ref="GD1:HH1"/>
-    <mergeCell ref="HI1:IL1"/>
-    <mergeCell ref="IM1:JQ1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>